--- a/Material/ResNet/Tentativa 2/Ao longo das Épocas.xlsx
+++ b/Material/ResNet/Tentativa 2/Ao longo das Épocas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\Tentativa 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0DFEE-BC40-4122-AF37-DBBABD5D53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B35B55-1984-452C-A5C6-B3E8ACD5B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3.8210563659667969</v>
+        <v>0.36970734596252441</v>
       </c>
       <c r="C2" s="2">
-        <v>0.91542482376098633</v>
+        <v>0.94348752498626709</v>
       </c>
       <c r="D2" s="2">
-        <v>6.3564133644104004</v>
+        <v>0.21402959525585169</v>
       </c>
       <c r="E2" s="2">
-        <v>0.74728679656982422</v>
+        <v>0.93953490257263184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.584169864654541</v>
+        <v>0.17031741142272949</v>
       </c>
       <c r="C3" s="2">
-        <v>0.93574607372283936</v>
+        <v>0.94987422227859497</v>
       </c>
       <c r="D3" s="2">
-        <v>2.498977899551392</v>
+        <v>0.14651200175285339</v>
       </c>
       <c r="E3" s="2">
-        <v>0.93798446655273438</v>
+        <v>0.94573640823364258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.811470746994019</v>
+        <v>0.14243344962596891</v>
       </c>
       <c r="C4" s="2">
-        <v>0.93826204538345337</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="D4" s="2">
-        <v>6.339726448059082</v>
+        <v>0.1466262489557266</v>
       </c>
       <c r="E4" s="2">
-        <v>0.83720928430557251</v>
+        <v>0.9519379734992981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2.8622090816497798</v>
+        <v>0.16796277463436129</v>
       </c>
       <c r="C5" s="2">
-        <v>0.94116508960723877</v>
+        <v>0.9554867148399353</v>
       </c>
       <c r="D5" s="2">
-        <v>3.8186357021331792</v>
+        <v>0.17481246590614319</v>
       </c>
       <c r="E5" s="2">
-        <v>0.91162788867950439</v>
+        <v>0.94418603181838989</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0335664749145508</v>
+        <v>0.12312716245651251</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93884265422821045</v>
+        <v>0.95684146881103516</v>
       </c>
       <c r="D6" s="2">
-        <v>10.295591354370121</v>
+        <v>0.1454352289438248</v>
       </c>
       <c r="E6" s="2">
-        <v>0.78294575214385986</v>
+        <v>0.95503878593444824</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>3.521720170974731</v>
+        <v>0.1218240484595299</v>
       </c>
       <c r="C7" s="2">
-        <v>0.9401974081993103</v>
+        <v>0.95819622278213501</v>
       </c>
       <c r="D7" s="2">
-        <v>5.773613452911377</v>
+        <v>0.1320158839225769</v>
       </c>
       <c r="E7" s="2">
-        <v>0.81550389528274536</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.6580922603607182</v>
+        <v>9.8470486700534821E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.94716471433639526</v>
+        <v>0.96380877494812012</v>
       </c>
       <c r="D8" s="2">
-        <v>5.1738357543945313</v>
+        <v>0.12727019190788269</v>
       </c>
       <c r="E8" s="2">
-        <v>0.85581398010253906</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.6539485454559331</v>
+        <v>8.9918568730354309E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94871300458908081</v>
+        <v>0.96884071826934814</v>
       </c>
       <c r="D9" s="2">
-        <v>5.4833159446716309</v>
+        <v>0.18464852869510651</v>
       </c>
       <c r="E9" s="2">
-        <v>0.8868216872215271</v>
+        <v>0.94883722066879272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2.8495750427246089</v>
+        <v>7.9352341592311859E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.95142251253128052</v>
+        <v>0.97058254480361938</v>
       </c>
       <c r="D10" s="2">
-        <v>3.2972557544708252</v>
+        <v>0.1194941774010658</v>
       </c>
       <c r="E10" s="2">
-        <v>0.94573640823364258</v>
+        <v>0.95348834991455078</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2.249397754669189</v>
+        <v>8.882392942905426E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>0.95335787534713745</v>
+        <v>0.97367912530899048</v>
       </c>
       <c r="D11" s="2">
-        <v>3.918654203414917</v>
+        <v>0.12614977359771731</v>
       </c>
       <c r="E11" s="2">
-        <v>0.92403101921081543</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
   </sheetData>

--- a/Material/ResNet/Tentativa 2/Ao longo das Épocas.xlsx
+++ b/Material/ResNet/Tentativa 2/Ao longo das Épocas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B35B55-1984-452C-A5C6-B3E8ACD5B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D82BA8-3BEE-4B63-9D67-7807D84013D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.36970734596252441</v>
+        <v>0.35874652862548828</v>
       </c>
       <c r="C2" s="2">
-        <v>0.94348752498626709</v>
+        <v>0.94387459754943848</v>
       </c>
       <c r="D2" s="2">
-        <v>0.21402959525585169</v>
+        <v>0.28601911664009089</v>
       </c>
       <c r="E2" s="2">
-        <v>0.93953490257263184</v>
+        <v>0.94108527898788452</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17031741142272949</v>
+        <v>0.1894897669553757</v>
       </c>
       <c r="C3" s="2">
-        <v>0.94987422227859497</v>
+        <v>0.94697117805480957</v>
       </c>
       <c r="D3" s="2">
-        <v>0.14651200175285339</v>
+        <v>0.16043822467327121</v>
       </c>
       <c r="E3" s="2">
-        <v>0.94573640823364258</v>
+        <v>0.94728684425354004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.14243344962596891</v>
+        <v>0.13930615782737729</v>
       </c>
       <c r="C4" s="2">
-        <v>0.95297080278396606</v>
+        <v>0.95355141162872314</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1466262489557266</v>
+        <v>0.1571292579174042</v>
       </c>
       <c r="E4" s="2">
-        <v>0.9519379734992981</v>
+        <v>0.94883722066879272</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.16796277463436129</v>
+        <v>0.12758857011795041</v>
       </c>
       <c r="C5" s="2">
-        <v>0.9554867148399353</v>
+        <v>0.955680251121521</v>
       </c>
       <c r="D5" s="2">
-        <v>0.17481246590614319</v>
+        <v>0.14734646677970889</v>
       </c>
       <c r="E5" s="2">
-        <v>0.94418603181838989</v>
+        <v>0.95503878593444824</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.12312716245651251</v>
+        <v>0.1544281393289566</v>
       </c>
       <c r="C6" s="2">
-        <v>0.95684146881103516</v>
+        <v>0.95509964227676392</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1454352289438248</v>
+        <v>0.1619170606136322</v>
       </c>
       <c r="E6" s="2">
-        <v>0.95503878593444824</v>
+        <v>0.94728684425354004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.1218240484595299</v>
+        <v>0.1679822504520416</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95819622278213501</v>
+        <v>0.95742207765579224</v>
       </c>
       <c r="D7" s="2">
-        <v>0.1320158839225769</v>
+        <v>0.1427985280752182</v>
       </c>
       <c r="E7" s="2">
-        <v>0.95038759708404541</v>
+        <v>0.934883713722229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>9.8470486700534821E-2</v>
+        <v>0.1010972559452057</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96380877494812012</v>
+        <v>0.96245402097702026</v>
       </c>
       <c r="D8" s="2">
-        <v>0.12727019190788269</v>
+        <v>0.12991207838058469</v>
       </c>
       <c r="E8" s="2">
-        <v>0.9596899151802063</v>
+        <v>0.95658916234970093</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>8.9918568730354309E-2</v>
+        <v>9.7843796014785767E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96884071826934814</v>
+        <v>0.9670988917350769</v>
       </c>
       <c r="D9" s="2">
-        <v>0.18464852869510651</v>
+        <v>0.15599386394023901</v>
       </c>
       <c r="E9" s="2">
-        <v>0.94883722066879272</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>7.9352341592311859E-2</v>
+        <v>8.9436106383800507E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.97058254480361938</v>
+        <v>0.970195472240448</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1194941774010658</v>
+        <v>0.1528305113315582</v>
       </c>
       <c r="E10" s="2">
-        <v>0.95348834991455078</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8.882392942905426E-2</v>
+        <v>7.0987090468406677E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>0.97367912530899048</v>
+        <v>0.97522741556167603</v>
       </c>
       <c r="D11" s="2">
-        <v>0.12614977359771731</v>
+        <v>0.23584192991256711</v>
       </c>
       <c r="E11" s="2">
-        <v>0.9596899151802063</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
   </sheetData>
